--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>552.7029785797596</v>
+        <v>0.6406003842177779</v>
       </c>
       <c r="R2">
-        <v>552.7029785797596</v>
+        <v>5.765403457960001</v>
       </c>
       <c r="S2">
-        <v>0.01139086022107902</v>
+        <v>9.687899836038754E-06</v>
       </c>
       <c r="T2">
-        <v>0.01139086022107902</v>
+        <v>9.687899836038752E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>534.908595775226</v>
+        <v>1593.774948711258</v>
       </c>
       <c r="R3">
-        <v>534.908595775226</v>
+        <v>14343.97453840132</v>
       </c>
       <c r="S3">
-        <v>0.01102412920079818</v>
+        <v>0.02410290790436584</v>
       </c>
       <c r="T3">
-        <v>0.01102412920079818</v>
+        <v>0.02410290790436583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>996.0794914356392</v>
+        <v>1136.562027928217</v>
       </c>
       <c r="R4">
-        <v>996.0794914356392</v>
+        <v>10229.05825135395</v>
       </c>
       <c r="S4">
-        <v>0.02052857085225478</v>
+        <v>0.01718840536984504</v>
       </c>
       <c r="T4">
-        <v>0.02052857085225478</v>
+        <v>0.01718840536984503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.9799940683674</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H5">
-        <v>54.9799940683674</v>
+        <v>34.20143</v>
       </c>
       <c r="I5">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J5">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>5598.407137713501</v>
+        <v>2144.5497080193</v>
       </c>
       <c r="R5">
-        <v>5598.407137713501</v>
+        <v>19300.9473721737</v>
       </c>
       <c r="S5">
-        <v>0.1153796444706204</v>
+        <v>0.03243236076117321</v>
       </c>
       <c r="T5">
-        <v>0.1153796444706204</v>
+        <v>0.0324323607611732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H6">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I6">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J6">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>5418.165301564736</v>
+        <v>3.094756951300889</v>
       </c>
       <c r="R6">
-        <v>5418.165301564736</v>
+        <v>27.852812561708</v>
       </c>
       <c r="S6">
-        <v>0.1116649737683982</v>
+        <v>4.680249356655885E-05</v>
       </c>
       <c r="T6">
-        <v>0.1116649737683982</v>
+        <v>4.680249356655885E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H7">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I7">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J7">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>10089.43094338434</v>
+        <v>7699.567816145092</v>
       </c>
       <c r="R7">
-        <v>10089.43094338434</v>
+        <v>69296.11034530583</v>
       </c>
       <c r="S7">
-        <v>0.2079368160483606</v>
+        <v>0.1164417687240145</v>
       </c>
       <c r="T7">
-        <v>0.2079368160483606</v>
+        <v>0.1164417687240145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J8">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>713.0016277685343</v>
+        <v>5490.760422834399</v>
       </c>
       <c r="R8">
-        <v>713.0016277685343</v>
+        <v>49416.84380550958</v>
       </c>
       <c r="S8">
-        <v>0.01469451440298537</v>
+        <v>0.08303762893470525</v>
       </c>
       <c r="T8">
-        <v>0.01469451440298537</v>
+        <v>0.08303762893470525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.00213905512072</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
-        <v>7.00213905512072</v>
+        <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J9">
-        <v>0.05539834154017269</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>690.0463979317586</v>
+        <v>10360.37486054139</v>
       </c>
       <c r="R9">
-        <v>690.0463979317586</v>
+        <v>93243.37374487252</v>
       </c>
       <c r="S9">
-        <v>0.01422142157637285</v>
+        <v>0.156681569954565</v>
       </c>
       <c r="T9">
-        <v>0.01422142157637285</v>
+        <v>0.156681569954565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H10">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I10">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J10">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>183.51095001644</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N10">
-        <v>183.51095001644</v>
+        <v>0.168572</v>
       </c>
       <c r="O10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q10">
-        <v>1284.969190152421</v>
+        <v>0.7574467215755556</v>
       </c>
       <c r="R10">
-        <v>1284.969190152421</v>
+        <v>6.81702049418</v>
       </c>
       <c r="S10">
-        <v>0.02648240556081446</v>
+        <v>1.145498527716349E-05</v>
       </c>
       <c r="T10">
-        <v>0.02648240556081446</v>
+        <v>1.145498527716349E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H11">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I11">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J11">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.826259398135</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N11">
-        <v>101.826259398135</v>
+        <v>419.396924</v>
       </c>
       <c r="O11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q11">
-        <v>1118.359413777113</v>
+        <v>1884.481557569896</v>
       </c>
       <c r="R11">
-        <v>1118.359413777113</v>
+        <v>16960.33401812906</v>
       </c>
       <c r="S11">
-        <v>0.02304868302319927</v>
+        <v>0.02849930943281003</v>
       </c>
       <c r="T11">
-        <v>0.02304868302319927</v>
+        <v>0.02849930943281003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H12">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I12">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J12">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.5479426357753</v>
+        <v>99.694255</v>
       </c>
       <c r="N12">
-        <v>98.5479426357753</v>
+        <v>299.082765</v>
       </c>
       <c r="O12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q12">
-        <v>1082.353609044631</v>
+        <v>1343.872409587608</v>
       </c>
       <c r="R12">
-        <v>1082.353609044631</v>
+        <v>12094.85168628848</v>
       </c>
       <c r="S12">
-        <v>0.02230662606901194</v>
+        <v>0.02032359270654881</v>
       </c>
       <c r="T12">
-        <v>0.02230662606901194</v>
+        <v>0.02032359270654881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.9830157798922</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H13">
-        <v>10.9830157798922</v>
+        <v>40.439815</v>
       </c>
       <c r="I13">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J13">
-        <v>0.08689356988285124</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.51095001644</v>
+        <v>188.11053</v>
       </c>
       <c r="N13">
-        <v>183.51095001644</v>
+        <v>564.33159</v>
       </c>
       <c r="O13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q13">
-        <v>2015.503659813569</v>
+        <v>2535.71834425065</v>
       </c>
       <c r="R13">
-        <v>2015.503659813569</v>
+        <v>22821.46509825585</v>
       </c>
       <c r="S13">
-        <v>0.04153826079064003</v>
+        <v>0.03834806524742105</v>
       </c>
       <c r="T13">
-        <v>0.04153826079064003</v>
+        <v>0.03834806524742104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.46935703894511</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H14">
-        <v>2.46935703894511</v>
+        <v>43.595609</v>
       </c>
       <c r="I14">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J14">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N14">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q14">
-        <v>251.4453903942353</v>
+        <v>0.8165554444831111</v>
       </c>
       <c r="R14">
-        <v>251.4453903942353</v>
+        <v>7.348999000348001</v>
       </c>
       <c r="S14">
-        <v>0.005182131101546174</v>
+        <v>1.234889574158477E-05</v>
       </c>
       <c r="T14">
-        <v>0.005182131101546174</v>
+        <v>1.234889574158477E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.46935703894511</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H15">
-        <v>2.46935703894511</v>
+        <v>43.595609</v>
       </c>
       <c r="I15">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J15">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N15">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q15">
-        <v>243.3500558212106</v>
+        <v>2031.540479389635</v>
       </c>
       <c r="R15">
-        <v>243.3500558212106</v>
+        <v>18283.86431450671</v>
       </c>
       <c r="S15">
-        <v>0.005015291355538029</v>
+        <v>0.03072330451568085</v>
       </c>
       <c r="T15">
-        <v>0.005015291355538029</v>
+        <v>0.03072330451568084</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.46935703894511</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H16">
-        <v>2.46935703894511</v>
+        <v>43.595609</v>
       </c>
       <c r="I16">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J16">
-        <v>0.01953664209625615</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N16">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q16">
-        <v>453.1540561466003</v>
+        <v>1448.743920175432</v>
       </c>
       <c r="R16">
-        <v>453.1540561466003</v>
+        <v>13038.69528157889</v>
       </c>
       <c r="S16">
-        <v>0.009339219639171946</v>
+        <v>0.02190958096890289</v>
       </c>
       <c r="T16">
-        <v>0.009339219639171946</v>
+        <v>0.02190958096890289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.5337773717097</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H17">
-        <v>45.5337773717097</v>
+        <v>43.595609</v>
       </c>
       <c r="I17">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J17">
-        <v>0.3602464519192088</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N17">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q17">
-        <v>4636.534226028641</v>
+        <v>2733.59770488759</v>
       </c>
       <c r="R17">
-        <v>4636.534226028641</v>
+        <v>24602.37934398831</v>
       </c>
       <c r="S17">
-        <v>0.09555604967907652</v>
+        <v>0.0413406257776663</v>
       </c>
       <c r="T17">
-        <v>0.09555604967907652</v>
+        <v>0.04134062577766629</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.5337773717097</v>
+        <v>2.664875</v>
       </c>
       <c r="H18">
-        <v>45.5337773717097</v>
+        <v>7.994625</v>
       </c>
       <c r="I18">
-        <v>0.3602464519192088</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J18">
-        <v>0.3602464519192088</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N18">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q18">
-        <v>4487.260080417411</v>
+        <v>0.1497411028333333</v>
       </c>
       <c r="R18">
-        <v>4487.260080417411</v>
+        <v>1.3476699255</v>
       </c>
       <c r="S18">
-        <v>0.09247960357117276</v>
+        <v>2.264558125981613E-06</v>
       </c>
       <c r="T18">
-        <v>0.09247960357117276</v>
+        <v>2.264558125981613E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.664875</v>
+      </c>
+      <c r="H19">
+        <v>7.994625</v>
+      </c>
+      <c r="I19">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J19">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>372.5467926148333</v>
+      </c>
+      <c r="R19">
+        <v>3352.9211335335</v>
+      </c>
+      <c r="S19">
+        <v>0.005634083431743664</v>
+      </c>
+      <c r="T19">
+        <v>0.005634083431743663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.664875</v>
+      </c>
+      <c r="H20">
+        <v>7.994625</v>
+      </c>
+      <c r="I20">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J20">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>265.672727793125</v>
+      </c>
+      <c r="R20">
+        <v>2391.054550138125</v>
+      </c>
+      <c r="S20">
+        <v>0.004017810228399729</v>
+      </c>
+      <c r="T20">
+        <v>0.004017810228399729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.664875</v>
+      </c>
+      <c r="H21">
+        <v>7.994625</v>
+      </c>
+      <c r="I21">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J21">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>501.29104863375</v>
+      </c>
+      <c r="R21">
+        <v>4511.61943770375</v>
+      </c>
+      <c r="S21">
+        <v>0.007581102958276725</v>
+      </c>
+      <c r="T21">
+        <v>0.007581102958276724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H22">
+        <v>172.393381</v>
+      </c>
+      <c r="I22">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J22">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.168572</v>
+      </c>
+      <c r="O22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q22">
+        <v>3.228966335770223</v>
+      </c>
+      <c r="R22">
+        <v>29.060697021932</v>
+      </c>
+      <c r="S22">
+        <v>4.883216308569748E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.883216308569748E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H23">
+        <v>172.393381</v>
+      </c>
+      <c r="I23">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J23">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N23">
+        <v>419.396924</v>
+      </c>
+      <c r="O23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q23">
+        <v>8033.472634373337</v>
+      </c>
+      <c r="R23">
+        <v>72301.25370936004</v>
+      </c>
+      <c r="S23">
+        <v>0.1214914635313567</v>
+      </c>
+      <c r="T23">
+        <v>0.1214914635313567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H24">
+        <v>172.393381</v>
+      </c>
+      <c r="I24">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J24">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.694255</v>
+      </c>
+      <c r="N24">
+        <v>299.082765</v>
+      </c>
+      <c r="O24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q24">
+        <v>5728.876561908718</v>
+      </c>
+      <c r="R24">
+        <v>51559.88905717847</v>
+      </c>
+      <c r="S24">
+        <v>0.08663869656052804</v>
+      </c>
+      <c r="T24">
+        <v>0.08663869656052804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>45.5337773717097</v>
-      </c>
-      <c r="H19">
-        <v>45.5337773717097</v>
-      </c>
-      <c r="I19">
-        <v>0.3602464519192088</v>
-      </c>
-      <c r="J19">
-        <v>0.3602464519192088</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q19">
-        <v>8355.946743319526</v>
-      </c>
-      <c r="R19">
-        <v>8355.946743319526</v>
-      </c>
-      <c r="S19">
-        <v>0.1722107986689595</v>
-      </c>
-      <c r="T19">
-        <v>0.1722107986689595</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H25">
+        <v>172.393381</v>
+      </c>
+      <c r="I25">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J25">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>188.11053</v>
+      </c>
+      <c r="N25">
+        <v>564.33159</v>
+      </c>
+      <c r="O25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q25">
+        <v>10809.67008946731</v>
+      </c>
+      <c r="R25">
+        <v>97287.0308052058</v>
+      </c>
+      <c r="S25">
+        <v>0.1634763319963634</v>
+      </c>
+      <c r="T25">
+        <v>0.1634763319963634</v>
       </c>
     </row>
   </sheetData>
